--- a/Optimization models (Pyomo)/CORDOBA/CostoVarAcopio.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CostoVarAcopio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE2CAA7-6600-4973-A8F3-1FF7667070C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD22C9-91D4-4EC2-A013-73A943E39851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6CA4128A-6296-43FA-822F-848771DD93BF}"/>
   </bookViews>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="9">
   <si>
     <t>CostoVarAcopio</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>COSTAÑERA</t>
@@ -453,20 +417,20 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -474,12 +438,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -488,12 +452,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
@@ -502,12 +466,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
@@ -516,12 +480,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
@@ -530,12 +494,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
@@ -544,12 +508,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
@@ -558,12 +522,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
@@ -572,12 +536,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
@@ -586,12 +550,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
@@ -600,12 +564,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
@@ -614,12 +578,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
@@ -628,12 +592,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
@@ -642,12 +606,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
@@ -656,12 +620,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
@@ -670,12 +634,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
@@ -684,12 +648,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
@@ -698,12 +662,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
       <c r="D18">
@@ -712,12 +676,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
@@ -726,12 +690,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
@@ -740,12 +704,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
       <c r="D21">
@@ -754,12 +718,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
       <c r="D22">
@@ -768,12 +732,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
@@ -782,12 +746,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>11</v>
       </c>
       <c r="D24">
@@ -796,12 +760,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
@@ -810,12 +774,12 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
@@ -824,12 +788,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
@@ -838,12 +802,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
@@ -852,12 +816,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
@@ -866,12 +830,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
@@ -880,12 +844,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
@@ -894,12 +858,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
         <v>7</v>
       </c>
       <c r="D32">
@@ -908,12 +872,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
@@ -922,12 +886,12 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>9</v>
       </c>
       <c r="D34">
@@ -936,12 +900,12 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
@@ -950,12 +914,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
         <v>11</v>
       </c>
       <c r="D36">
@@ -964,12 +928,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
         <v>12</v>
       </c>
       <c r="D37">
@@ -978,12 +942,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
@@ -992,12 +956,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
@@ -1006,12 +970,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
@@ -1020,12 +984,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
@@ -1034,12 +998,12 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
@@ -1048,12 +1012,12 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
       <c r="D43">
@@ -1062,12 +1026,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
@@ -1076,12 +1040,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>8</v>
       </c>
       <c r="D45">
@@ -1090,12 +1054,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>9</v>
       </c>
       <c r="D46">
@@ -1104,12 +1068,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
@@ -1118,12 +1082,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>11</v>
       </c>
       <c r="D48">
@@ -1132,12 +1096,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>12</v>
       </c>
       <c r="D49">
@@ -1146,12 +1110,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
@@ -1160,12 +1124,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
@@ -1174,12 +1138,12 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
@@ -1188,12 +1152,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
@@ -1202,12 +1166,12 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
         <v>5</v>
       </c>
       <c r="D54">
@@ -1216,12 +1180,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
       <c r="D55">
@@ -1230,12 +1194,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
@@ -1244,12 +1208,12 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>8</v>
       </c>
       <c r="D57">
@@ -1258,12 +1222,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>9</v>
       </c>
       <c r="D58">
@@ -1272,12 +1236,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
@@ -1286,12 +1250,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>11</v>
       </c>
       <c r="D60">
@@ -1300,12 +1264,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>12</v>
       </c>
       <c r="D61">
@@ -1314,12 +1278,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
@@ -1328,12 +1292,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
@@ -1342,12 +1306,12 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
@@ -1356,12 +1320,12 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
@@ -1370,12 +1334,12 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
@@ -1384,12 +1348,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
       <c r="D67">
@@ -1398,12 +1362,12 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
         <v>7</v>
       </c>
       <c r="D68">
@@ -1412,12 +1376,12 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
@@ -1426,12 +1390,12 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
         <v>9</v>
       </c>
       <c r="D70">
@@ -1440,12 +1404,12 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
@@ -1454,12 +1418,12 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
         <v>11</v>
       </c>
       <c r="D72">
@@ -1468,12 +1432,12 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
         <v>12</v>
       </c>
       <c r="D73">
